--- a/5_analise_completa_tokens.xlsx
+++ b/5_analise_completa_tokens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,25 +518,25 @@
         <v>95</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="3">
@@ -562,25 +562,25 @@
         <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3392</v>
       </c>
       <c r="G3" t="n">
-        <v>51</v>
+        <v>3443</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>457744</v>
       </c>
     </row>
     <row r="4">
@@ -606,25 +606,25 @@
         <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9962</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>10019</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2603</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>768625</v>
       </c>
     </row>
     <row r="5">
@@ -650,25 +650,25 @@
         <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>1040</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>148811</v>
       </c>
     </row>
     <row r="6">
@@ -694,25 +694,25 @@
         <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>40897</v>
       </c>
       <c r="G6" t="n">
-        <v>44</v>
+        <v>40941</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9711</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2466</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12177</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2509623</v>
       </c>
     </row>
     <row r="7">
@@ -738,25 +738,25 @@
         <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>2294</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>203866</v>
       </c>
     </row>
     <row r="8">
@@ -782,25 +782,25 @@
         <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4803</v>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>4852</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>452549</v>
       </c>
     </row>
     <row r="9">
@@ -826,25 +826,25 @@
         <v>146</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16450</v>
       </c>
       <c r="G9" t="n">
-        <v>146</v>
+        <v>16596</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1707</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5376</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6237180</v>
       </c>
     </row>
     <row r="10">
@@ -870,25 +870,25 @@
         <v>55</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="G10" t="n">
-        <v>55</v>
+        <v>1052</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>148746</v>
       </c>
     </row>
     <row r="11">
@@ -914,25 +914,25 @@
         <v>162</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="G11" t="n">
-        <v>162</v>
+        <v>888</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>151666</v>
       </c>
     </row>
     <row r="12">
@@ -958,25 +958,25 @@
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>2269</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138689</v>
       </c>
     </row>
     <row r="13">
@@ -1002,25 +1002,25 @@
         <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>143567</v>
       </c>
     </row>
     <row r="14">
@@ -1046,25 +1046,25 @@
         <v>132</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7535</v>
       </c>
       <c r="G14" t="n">
-        <v>132</v>
+        <v>7667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3588283</v>
       </c>
     </row>
     <row r="15">
@@ -1090,25 +1090,25 @@
         <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>159082</v>
       </c>
     </row>
     <row r="16">
@@ -1134,25 +1134,25 @@
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>866</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31068</v>
       </c>
     </row>
     <row r="17">
@@ -1178,25 +1178,25 @@
         <v>53</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="G17" t="n">
-        <v>53</v>
+        <v>2563</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>492942</v>
       </c>
     </row>
     <row r="18">
@@ -1222,25 +1222,25 @@
         <v>49</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>38685</v>
       </c>
       <c r="G18" t="n">
-        <v>49</v>
+        <v>38734</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5437</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3287</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8724</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>7341691</v>
       </c>
     </row>
     <row r="19">
@@ -1266,25 +1266,25 @@
         <v>61</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="G19" t="n">
-        <v>61</v>
+        <v>896</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>558532</v>
       </c>
     </row>
     <row r="20">
@@ -1310,25 +1310,25 @@
         <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24877</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>24917</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4565</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3408</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2245437</v>
       </c>
     </row>
     <row r="21">
@@ -1354,25 +1354,25 @@
         <v>48</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="G21" t="n">
-        <v>48</v>
+        <v>870</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>263360</v>
       </c>
     </row>
     <row r="22">
@@ -1398,25 +1398,25 @@
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>8127</v>
       </c>
       <c r="G22" t="n">
-        <v>42</v>
+        <v>8169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2086</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>849571</v>
       </c>
     </row>
     <row r="23">
@@ -1442,25 +1442,25 @@
         <v>96</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8791</v>
       </c>
       <c r="G23" t="n">
-        <v>96</v>
+        <v>8887</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2737</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3056</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>620470</v>
       </c>
     </row>
     <row r="24">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CVE-2017-9217</t>
+          <t>CVE-2013-4391</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2805</v>
       </c>
       <c r="G24" t="n">
-        <v>59</v>
+        <v>2805</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>178008</v>
       </c>
     </row>
     <row r="25">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVE-2020-13529</t>
+          <t>CVE-2017-1000082</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48774</v>
       </c>
       <c r="G25" t="n">
-        <v>46</v>
+        <v>48774</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4881</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2723</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>8277684</v>
       </c>
     </row>
     <row r="26">
@@ -1559,40 +1559,304 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>CVE-2017-9217</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>388</v>
+      </c>
+      <c r="E26" t="n">
+        <v>59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>347</v>
+      </c>
+      <c r="G26" t="n">
+        <v>406</v>
+      </c>
+      <c r="H26" t="n">
+        <v>43</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>50</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>176302</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CVE-2018-16888</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>201897</v>
+      </c>
+      <c r="G27" t="n">
+        <v>201897</v>
+      </c>
+      <c r="H27" t="n">
+        <v>47527</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43799</v>
+      </c>
+      <c r="J27" t="n">
+        <v>91326</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1363</v>
+      </c>
+      <c r="L27" t="n">
+        <v>36792884</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CVE-2018-6954</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>49859</v>
+      </c>
+      <c r="G28" t="n">
+        <v>49859</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3764</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6338</v>
+      </c>
+      <c r="K28" t="n">
+        <v>543</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20608875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CVE-2019-20386</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>400</v>
+      </c>
+      <c r="H29" t="n">
+        <v>84</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>88</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>51339</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CVE-2020-13529</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>308</v>
+      </c>
+      <c r="E30" t="n">
+        <v>46</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8265</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8311</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1406</v>
+      </c>
+      <c r="I30" t="n">
+        <v>707</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2113</v>
+      </c>
+      <c r="K30" t="n">
+        <v>24</v>
+      </c>
+      <c r="L30" t="n">
+        <v>553316</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>CVE-2020-1712</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>systemd/systemd</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>559</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E31" t="n">
         <v>73</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F31" t="n">
+        <v>41304</v>
+      </c>
+      <c r="G31" t="n">
+        <v>41377</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12615</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13887</v>
+      </c>
+      <c r="K31" t="n">
+        <v>217</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5202169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CVE-2021-33910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>systemd/systemd</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
-        <v>73</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
+      <c r="F32" t="n">
+        <v>10564</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10564</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1249</v>
+      </c>
+      <c r="I32" t="n">
+        <v>986</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2235</v>
+      </c>
+      <c r="K32" t="n">
+        <v>51</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1928335</v>
       </c>
     </row>
   </sheetData>
